--- a/Design/Burundi final.xlsx
+++ b/Design/Burundi final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A49AF56-B3F3-4F53-8372-7EB5B404326A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5996B9A-7059-4013-8FAD-3AFADF7B7654}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="220">
   <si>
     <t>Name_ID</t>
   </si>
@@ -762,12 +762,6 @@
   </si>
   <si>
     <t>Lower</t>
-  </si>
-  <si>
-    <t>Inital</t>
-  </si>
-  <si>
-    <t>Capacitiy</t>
   </si>
   <si>
     <t>Fixed Cost</t>
@@ -1227,9 +1221,9 @@
     <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacitiy" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Inital" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1572,16 +1566,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -8844,7 +8838,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8870,10 +8864,10 @@
         <v>215</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -8889,7 +8883,9 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">

--- a/Design/Burundi final.xlsx
+++ b/Design/Burundi final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5996B9A-7059-4013-8FAD-3AFADF7B7654}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297D62A-8941-458E-B1AC-38856F333952}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
@@ -8838,7 +8838,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8880,9 +8880,15 @@
       <c r="C2" s="1">
         <v>29.352</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>

--- a/Design/Burundi final.xlsx
+++ b/Design/Burundi final.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297D62A-8941-458E-B1AC-38856F333952}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E4651B-B18B-4C1D-B06D-3D3D96B6753E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
     <sheet name="Warehouses" sheetId="2" r:id="rId2"/>
+    <sheet name="VehicleFleet" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="263">
   <si>
     <t>Name_ID</t>
   </si>
@@ -752,15 +753,6 @@
     <t>RWISABI</t>
   </si>
   <si>
-    <t>Ngozi Warehouse</t>
-  </si>
-  <si>
-    <t>Gitega Warehouse</t>
-  </si>
-  <si>
-    <t>Bujumbura Warehouse</t>
-  </si>
-  <si>
     <t>Lower</t>
   </si>
   <si>
@@ -774,6 +766,144 @@
   </si>
   <si>
     <t>Storage Cost</t>
+  </si>
+  <si>
+    <t>Plate Nr</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>GITEGA</t>
+  </si>
+  <si>
+    <t>CD44A95</t>
+  </si>
+  <si>
+    <t>RENAULT 6X4</t>
+  </si>
+  <si>
+    <t>CD44B02</t>
+  </si>
+  <si>
+    <t>CD44A89</t>
+  </si>
+  <si>
+    <t>RENAULT4X4</t>
+  </si>
+  <si>
+    <t>CD44A91</t>
+  </si>
+  <si>
+    <t>RENAULT 4X4</t>
+  </si>
+  <si>
+    <t>CD44A98</t>
+  </si>
+  <si>
+    <t>CD44A54</t>
+  </si>
+  <si>
+    <t>TOYOTA DYNA</t>
+  </si>
+  <si>
+    <t>E059AIT</t>
+  </si>
+  <si>
+    <t>TOYOTA PIC-UP</t>
+  </si>
+  <si>
+    <t>Land cruiser</t>
+  </si>
+  <si>
+    <t>CD107-98U</t>
+  </si>
+  <si>
+    <t>TRAILER</t>
+  </si>
+  <si>
+    <t>BUJUMBURA</t>
+  </si>
+  <si>
+    <t>CD44A96</t>
+  </si>
+  <si>
+    <t>CD44A52</t>
+  </si>
+  <si>
+    <t>CD44A81</t>
+  </si>
+  <si>
+    <t>ISUZU</t>
+  </si>
+  <si>
+    <t>CD44A55</t>
+  </si>
+  <si>
+    <t>CD44A86</t>
+  </si>
+  <si>
+    <t>CD44A87</t>
+  </si>
+  <si>
+    <t>CD44A35</t>
+  </si>
+  <si>
+    <t>CD44A25</t>
+  </si>
+  <si>
+    <t>CD44A31</t>
+  </si>
+  <si>
+    <t>TOYOTA  PIC-UP</t>
+  </si>
+  <si>
+    <t>E058AIT</t>
+  </si>
+  <si>
+    <t>NGOZI</t>
+  </si>
+  <si>
+    <t>CD44A88</t>
+  </si>
+  <si>
+    <t>CD44A94</t>
+  </si>
+  <si>
+    <t>CD44B01</t>
+  </si>
+  <si>
+    <t>CD44A90</t>
+  </si>
+  <si>
+    <t>CD44A57</t>
+  </si>
+  <si>
+    <t>CD44A48</t>
+  </si>
+  <si>
+    <t>CD44A43</t>
+  </si>
+  <si>
+    <t>CD44A33</t>
+  </si>
+  <si>
+    <t>CD107-69U</t>
+  </si>
+  <si>
+    <t>Capacity in MT</t>
+  </si>
+  <si>
+    <t>350,34</t>
+  </si>
+  <si>
+    <t>300,19</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
   </si>
 </sst>
 </file>
@@ -831,7 +961,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -839,21 +969,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -921,38 +1367,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1195,38 +1609,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K208" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K208" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:K208" xr:uid="{92D50160-D1EB-4CE0-BC5E-AD10E29A0DA1}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:E28" xr:uid="{A087B6AD-DA33-423B-AC5A-C78EC6ECE7C3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1529,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1566,16 +1994,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -8837,13 +9265,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8858,21 +9287,21 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>214</v>
+      <c r="A2" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="B2" s="1">
         <v>-3.36</v>
@@ -8881,7 +9310,7 @@
         <v>29.352</v>
       </c>
       <c r="D2" s="1">
-        <v>100000</v>
+        <v>11917</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -8894,8 +9323,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>212</v>
+      <c r="A3" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="B3" s="1">
         <v>-2.911</v>
@@ -8904,7 +9333,7 @@
         <v>29.821000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>10000</v>
+        <v>11917</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -8917,8 +9346,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>213</v>
+      <c r="A4" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="B4" s="1">
         <v>-3.4279999999999999</v>
@@ -8927,7 +9356,7 @@
         <v>29.928000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>11917</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -8937,6 +9366,505 @@
       </c>
       <c r="G4" s="1">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537D82F5-E5C4-4F7A-919C-4E3C89A011D5}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
